--- a/RúbricaDeEvaluación.xlsx
+++ b/RúbricaDeEvaluación.xlsx
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C47" s="10">
         <f>SUM(C48:C52)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1088,7 +1088,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C54" s="10">
         <f>SUM(C47,C40,C34,C22,C13)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="C55" s="10">
         <f>C54/$B$54*5</f>
-        <v>3.9880952380952381</v>
+        <v>4.0476190476190474</v>
       </c>
     </row>
   </sheetData>
